--- a/98_output/experimento_029_paquetes/partido_resumen_median.xlsx
+++ b/98_output/experimento_029_paquetes/partido_resumen_median.xlsx
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -521,7 +521,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -569,7 +569,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -577,7 +577,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
